--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116768.277732248</v>
+        <v>2112463.93792238</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.2792495146818396</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>148.6865099692908</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>168.131741709794</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>137.9625124500438</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.05658979733862</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>235.8715405415671</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>233.6084191422258</v>
+        <v>110.0965202167179</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>93.35135828376146</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>10.52503921261133</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>20.64107630343883</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>96.04118440954468</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>250.136676369062</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1220,7 +1220,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>155.8686312908744</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611523</v>
+        <v>20.24979976115229</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099085</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>50.34571932180271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>209.0414131436115</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>183.4720137757388</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.6356839950556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>100.7815116657695</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>40.62253010341743</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>156.0551722706133</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>54.31367585848648</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>101.393069766706</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695562</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>139.1630968205461</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427719</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>104.7777418077832</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>259.5331726259154</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690.233069932778</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>423.8554133656</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.573449789174</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W2" t="n">
-        <v>690.233069932778</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X2" t="n">
-        <v>690.233069932778</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.233069932778</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5660780344868</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>316.5660780344868</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4409,25 +4409,25 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>691.074259448092</v>
+        <v>866.6895940817096</v>
       </c>
       <c r="U3" t="n">
-        <v>691.074259448092</v>
+        <v>638.5537481185231</v>
       </c>
       <c r="V3" t="n">
-        <v>455.9221512163493</v>
+        <v>403.4016398867803</v>
       </c>
       <c r="W3" t="n">
-        <v>316.5660780344868</v>
+        <v>403.4016398867803</v>
       </c>
       <c r="X3" t="n">
-        <v>316.5660780344868</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="Y3" t="n">
-        <v>316.5660780344868</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378.8398477105895</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C4" t="n">
-        <v>378.8398477105895</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>228.7232082982538</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>228.7232082982538</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>81.83326080034345</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>81.83326080034345</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4497,7 +4497,7 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>788.4778634388466</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="X4" t="n">
-        <v>560.4883125408293</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="Y4" t="n">
-        <v>560.4883125408293</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.48204416864</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C5" t="n">
-        <v>380.48204416864</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>380.48204416864</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>380.48204416864</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>373.5365434194366</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="G5" t="n">
         <v>137.5684432757741</v>
@@ -4567,22 +4567,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>646.859700735818</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>646.859700735818</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W5" t="n">
-        <v>380.48204416864</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>380.48204416864</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.48204416864</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318.9943252896841</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>224.7000239929554</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>224.7000239929554</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749989</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
         <v>21.0971104001205</v>
@@ -4649,19 +4649,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957466</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>904.2569522304913</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4679,19 +4679,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496284</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2316820178858</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>318.9943252896841</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>318.9943252896841</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>318.9943252896841</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.0971104001205</v>
+        <v>645.2175042777677</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0971104001205</v>
+        <v>645.2175042777677</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>495.100864865432</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>347.1877712830388</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>200.2978237851285</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>31.72846314013194</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>31.72846314013194</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>31.72846314013194</v>
       </c>
       <c r="J7" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1034.005947982349</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1034.005947982349</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>808.5369117403634</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>542.1592551731853</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>287.4747669672985</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>21.0971104001205</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>21.0971104001205</v>
+        <v>826.8659691080074</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.0971104001205</v>
+        <v>826.8659691080074</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.224925525248</v>
+        <v>726.5262874280911</v>
       </c>
       <c r="C8" t="n">
-        <v>1303.262408584837</v>
+        <v>726.5262874280911</v>
       </c>
       <c r="D8" t="n">
-        <v>944.9967099780861</v>
+        <v>726.5262874280911</v>
       </c>
       <c r="E8" t="n">
-        <v>559.2084573798418</v>
+        <v>726.5262874280911</v>
       </c>
       <c r="F8" t="n">
-        <v>148.2225525902342</v>
+        <v>315.5403826384835</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685574</v>
+        <v>303.8745646705548</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607433</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.1862829045947</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.9057189406</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.356530550203</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661167</v>
+        <v>2540.564622661169</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.83001576214</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.83001576214</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.83001576214</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.83001576214</v>
+        <v>2229.499872999218</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.83001576214</v>
+        <v>1876.731217729104</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.36425750106</v>
+        <v>1503.265459468025</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.224925525248</v>
+        <v>1113.126127492213</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010818</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199548</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587036</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,58 +4877,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J9" t="n">
-        <v>113.488757963719</v>
+        <v>113.4887579637191</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148186</v>
+        <v>559.9063389572715</v>
       </c>
       <c r="L9" t="n">
-        <v>845.3273098127281</v>
+        <v>854.4423223907534</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.39377828703</v>
+        <v>1217.508790865055</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471869</v>
+        <v>1604.593193337625</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459259</v>
+        <v>1936.480003325015</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888884</v>
+        <v>2445.345361789044</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442629</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251702</v>
+        <v>2424.826280251705</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685351</v>
+        <v>2230.816477685354</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751581</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519838</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791637</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586104</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.72505782115</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347.8691164246424</v>
+        <v>715.9213805686168</v>
       </c>
       <c r="C10" t="n">
-        <v>347.8691164246424</v>
+        <v>546.9851976407099</v>
       </c>
       <c r="D10" t="n">
-        <v>347.8691164246424</v>
+        <v>396.8685582283741</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9560228422492</v>
+        <v>248.955464645981</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9560228422492</v>
+        <v>102.0655171480707</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422492</v>
+        <v>102.0655171480707</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380168</v>
+        <v>76.63468308380175</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676573</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368927</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904045</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
         <v>1382.582027931092</v>
@@ -4983,31 +4983,31 @@
         <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699198</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.147591173604</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.147591173604</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>961.4631029677167</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="W10" t="n">
-        <v>750.3101603984122</v>
+        <v>1346.351975440404</v>
       </c>
       <c r="X10" t="n">
-        <v>750.3101603984122</v>
+        <v>1118.362424542387</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.5175812548821</v>
+        <v>897.5698453988565</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2194.592113392523</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1905.516886736721</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1650.832398530834</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1361.415228493873</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.425677595856</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1205.369871369643</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>175.874420793908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>175.874420793908</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096665</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782912</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,16 +5837,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6077,19 +6077,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>738.560493261518</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>590.6473996791249</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>443.7574521812145</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>276.5613528960944</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>134.8495217382925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2267.47159895366</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2267.47159895366</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6548,16 +6548,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>641.8461362382112</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>472.9099533103043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2325.055080985707</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2105.453616008648</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1816.378389352846</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1561.693901146959</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1272.276731109998</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1044.287180211981</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>823.4946010684509</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6788,19 +6788,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1053.171308869725</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>884.2351259418183</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>734.1184865294825</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1683.601903741512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1455.612352843495</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1234.819773699965</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7028,7 +7028,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7341,43 +7341,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3415.416714642995</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3415.416714642995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3194.624135499465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7794,10 +7794,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069115</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5.26288739959449</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>255.2581536004321</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538082</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094989</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348493</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>33.93343655154945</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.19629618688168</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>185.7414866708215</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>40.64330621514811</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>61.35027805667499</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>126.7126101431581</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>45.04089287986319</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>26.98982571067563</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838304.2560524779</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.2560524779</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752543</v>
@@ -26346,10 +26346,10 @@
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752545</v>
@@ -26368,13 +26368,13 @@
         <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580801</v>
+        <v>390680.0076580804</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606922</v>
+        <v>507909.2320606918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101788</v>
+        <v>95270.23779101798</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447207</v>
+        <v>141668.8507447206</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26447,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26475,7 +26475,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567905</v>
+        <v>92902.86757567909</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-400002.5659070314</v>
+        <v>-400002.5659070315</v>
       </c>
       <c r="C6" t="n">
-        <v>280085.4146841613</v>
+        <v>280085.4146841609</v>
       </c>
       <c r="D6" t="n">
-        <v>-29996.44282687439</v>
+        <v>-29996.44282687444</v>
       </c>
       <c r="E6" t="n">
-        <v>-35627.45332615101</v>
+        <v>-35974.83258050712</v>
       </c>
       <c r="F6" t="n">
-        <v>472281.7787345416</v>
+        <v>471934.3994801845</v>
       </c>
       <c r="G6" t="n">
-        <v>472281.7787345415</v>
+        <v>471934.3994801845</v>
       </c>
       <c r="H6" t="n">
-        <v>472281.7787345411</v>
+        <v>471934.3994801845</v>
       </c>
       <c r="I6" t="n">
-        <v>472281.7787345413</v>
+        <v>471934.3994801845</v>
       </c>
       <c r="J6" t="n">
-        <v>403282.6243154273</v>
+        <v>402935.2450610704</v>
       </c>
       <c r="K6" t="n">
-        <v>472281.7787345413</v>
+        <v>471934.3994801844</v>
       </c>
       <c r="L6" t="n">
-        <v>377011.5409435235</v>
+        <v>376664.1616891664</v>
       </c>
       <c r="M6" t="n">
-        <v>339563.8030390728</v>
+        <v>339216.4237847158</v>
       </c>
       <c r="N6" t="n">
-        <v>472281.7787345416</v>
+        <v>471934.3994801845</v>
       </c>
       <c r="O6" t="n">
-        <v>472281.7787345416</v>
+        <v>471934.3994801846</v>
       </c>
       <c r="P6" t="n">
-        <v>472281.7787345414</v>
+        <v>471934.3994801845</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.702459562784</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856967</v>
+        <v>640.1406900856973</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933056</v>
+        <v>319.6474457933057</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788899</v>
+        <v>434.2730407788897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841912</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139511</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841909</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841912</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>152.4884436845404</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>200.5544587481222</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27460,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>26.70924587508279</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>113.7324707108758</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>107.3255695385182</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>50.65145779502393</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>179.2257555034842</v>
+        <v>302.7376544289921</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>79.35714070455428</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>4.547159886270755</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>106.8635265802251</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>315.5079753787048</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>50.89679785123838</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465017</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27912,10 +27912,10 @@
         <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.776449164526525</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164524394</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>96.91160063723683</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430994</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>77.48158519297954</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885561</v>
       </c>
       <c r="H8" t="n">
         <v>38.44132789546676</v>
@@ -31524,34 +31524,34 @@
         <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.4691627763196</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.3427171354937</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.0954050359948</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525084</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.4356192307901</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983027</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542134</v>
       </c>
       <c r="R8" t="n">
         <v>235.7856768864753</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.53465245140481</v>
       </c>
       <c r="T8" t="n">
         <v>16.43128649944155</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
         <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.14683309026279</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502172</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571286</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617173</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.336058015222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519089</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.5050724947594</v>
       </c>
       <c r="Q9" t="n">
         <v>256.3629847463704</v>
@@ -31630,13 +31630,13 @@
         <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133945</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,16 +31676,16 @@
         <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415886</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
         <v>250.3240987490126</v>
@@ -31694,7 +31694,7 @@
         <v>263.9316641023128</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462353</v>
       </c>
       <c r="O10" t="n">
         <v>237.9869810046257</v>
@@ -31703,19 +31703,19 @@
         <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307424</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.19410091794276</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650344</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,7 +32098,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>209.7242506524607</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>303.4297552732313</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33268,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>502.5232631188761</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763041</v>
@@ -34798,7 +34798,7 @@
         <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35029,13 +35029,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015062</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>123.5028874333354</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.5343130705674</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.379311731339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.5763021655064</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087221</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559175</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.3374078091033</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430331</v>
       </c>
       <c r="Q8" t="n">
         <v>183.0384768797639</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.20013907234321</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127605</v>
+        <v>62.90656844127608</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758581</v>
+        <v>450.9268494884368</v>
       </c>
       <c r="L9" t="n">
-        <v>552.7692479776864</v>
+        <v>297.5110943772544</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396988</v>
+        <v>366.7338065396989</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856967</v>
+        <v>390.9943459318887</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074644</v>
+        <v>335.2392020074645</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804291</v>
+        <v>514.005412589928</v>
       </c>
       <c r="Q9" t="n">
         <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783586</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.6802301787333</v>
       </c>
       <c r="K10" t="n">
         <v>173.3488267513692</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
         <v>303.5155410641534</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357668</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228601</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>82.88662398579406</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326294881</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>160.8335108287869</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>368.5488557045459</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2112463.93792238</v>
+        <v>2114224.468225165</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>116.9725659584294</v>
+      </c>
+      <c r="G2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.83417464571001</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2792495146818396</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>107.1258713709636</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>168.131741709794</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>29.04274164407519</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>235.8715405415671</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>110.0965202167179</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565657</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>38.09547848441306</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10.52503921261133</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>250.136676369062</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465011</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>19.3331614517003</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115229</v>
+        <v>18.47335059663023</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099085</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.34571932180334</v>
       </c>
       <c r="H10" t="n">
-        <v>50.34571932180271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>89.67992556049168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>146.5235739004488</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>61.66004604095001</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>147.0536681065587</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.91555826189063</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>156.0551722706133</v>
+        <v>211.147499124903</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.56087338713365</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695562</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892427719</v>
+        <v>134.0367616438388</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>96.78074638267616</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>20.88994825141581</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899464</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.573449789174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.5501396812475</v>
+        <v>452.69250022226</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>278.2394709411329</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>129.3050612798817</v>
       </c>
       <c r="E3" t="n">
         <v>21.09711040012049</v>
@@ -4412,22 +4412,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4439,22 +4439,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>866.6895940817096</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>638.5537481185231</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>403.4016398867803</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>403.4016398867803</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>195.5501396812475</v>
+        <v>828.6681360072819</v>
       </c>
       <c r="Y3" t="n">
-        <v>195.5501396812475</v>
+        <v>620.907837242328</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.9529738206666</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="C4" t="n">
-        <v>466.0167908927597</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>475.1652797790786</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1025.519417335242</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1025.519417335242</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1025.519417335242</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>1025.519417335242</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>1025.519417335242</v>
       </c>
       <c r="W4" t="n">
-        <v>816.6014386509063</v>
+        <v>1025.519417335242</v>
       </c>
       <c r="X4" t="n">
-        <v>816.6014386509063</v>
+        <v>1025.519417335242</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.6014386509063</v>
+        <v>804.7268381917114</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358416</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388467</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388467</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388467</v>
+        <v>255.7225503044907</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.2175042777677</v>
+        <v>378.8398477105895</v>
       </c>
       <c r="C7" t="n">
-        <v>645.2175042777677</v>
+        <v>378.8398477105895</v>
       </c>
       <c r="D7" t="n">
-        <v>495.100864865432</v>
+        <v>228.7232082982538</v>
       </c>
       <c r="E7" t="n">
-        <v>347.1877712830388</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="F7" t="n">
-        <v>200.2978237851285</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="G7" t="n">
-        <v>31.72846314013194</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="H7" t="n">
-        <v>31.72846314013194</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>31.72846314013194</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080074</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.8659691080074</v>
+        <v>560.4883125408293</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>726.5262874280911</v>
+        <v>1230.155835082789</v>
       </c>
       <c r="C8" t="n">
-        <v>726.5262874280911</v>
+        <v>1230.155835082789</v>
       </c>
       <c r="D8" t="n">
-        <v>726.5262874280911</v>
+        <v>1230.155835082789</v>
       </c>
       <c r="E8" t="n">
-        <v>726.5262874280911</v>
+        <v>844.3675824845443</v>
       </c>
       <c r="F8" t="n">
-        <v>315.5403826384835</v>
+        <v>433.3816776949367</v>
       </c>
       <c r="G8" t="n">
-        <v>303.8745646705548</v>
+        <v>421.7158597270079</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685579</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467184</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607433</v>
+        <v>442.1757437607444</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045947</v>
+        <v>795.1862829045963</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209588</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661172</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342789</v>
+        <v>2541.034314431983</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342789</v>
+        <v>2287.453135957553</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999218</v>
+        <v>1956.390248613983</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729104</v>
+        <v>1603.621593343868</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468025</v>
+        <v>1230.155835082789</v>
       </c>
       <c r="Y8" t="n">
-        <v>1113.126127492213</v>
+        <v>1230.155835082789</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010864</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199594</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587081</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532526</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801376</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763258</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993892</v>
+        <v>69.87120530446212</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>113.4887579637192</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572715</v>
+        <v>298.0857543148189</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907534</v>
+        <v>592.6217377483009</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865055</v>
+        <v>1226.361020933142</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337625</v>
+        <v>1860.100304117983</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325015</v>
+        <v>2191.987114105373</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789044</v>
+        <v>2439.022472534998</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251705</v>
+        <v>2424.826280251707</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685354</v>
+        <v>2230.816477685356</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751585</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519843</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791641</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586108</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821154</v>
       </c>
     </row>
     <row r="10">
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686168</v>
+        <v>715.9213805686175</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407099</v>
+        <v>546.9851976407106</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283741</v>
+        <v>396.8685582283748</v>
       </c>
       <c r="E10" t="n">
-        <v>248.955464645981</v>
+        <v>248.9554646459817</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480707</v>
+        <v>102.0655171480713</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0655171480707</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685583</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380175</v>
+        <v>76.63468308380183</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368927</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904045</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
         <v>1635.769145477365</v>
@@ -5001,13 +5001,13 @@
         <v>1635.769145477365</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440404</v>
+        <v>1346.351975440405</v>
       </c>
       <c r="X10" t="n">
         <v>1118.362424542387</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988565</v>
+        <v>897.5698453988572</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,61 +5175,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768874</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944943</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>266.4891497944943</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>266.4891497944943</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
         <v>1907.987318831765</v>
@@ -5238,13 +5238,13 @@
         <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>297.8113689946122</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="20">
@@ -5755,7 +5755,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.846358063199</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226941</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2106.476762093131</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.401535437329</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V28" t="n">
-        <v>1562.717047231442</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>1273.299877194481</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529338</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>247.2061440917674</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>105.4943129339655</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
@@ -7183,10 +7183,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400667</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121598</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121598</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121598</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121598</v>
+        <v>478.4901340122882</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270397</v>
+        <v>311.2940347271681</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7341,43 +7341,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854702</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648815</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611854</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138365</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703064</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7414,16 +7414,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>197.0043242297712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.4068835459988</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.146344153809</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094989</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.386756822271067</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348493</v>
+        <v>20.98618304348489</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>50.61478728573221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.9994244361422</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>103.8640922513188</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>139.4693302300323</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.45968844823106</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>61.35027805667499</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219467</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>83.05123379926114</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838304.2560524779</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516056</v>
@@ -26325,37 +26325,37 @@
         <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="K2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580804</v>
+        <v>390680.007658081</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606918</v>
+        <v>507909.2320606917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101798</v>
+        <v>95270.23779101821</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447206</v>
+        <v>141668.8507447205</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26447,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92902.86757567913</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-400002.5659070315</v>
+        <v>-400002.5659070321</v>
       </c>
       <c r="C6" t="n">
-        <v>280085.4146841609</v>
+        <v>280085.4146841613</v>
       </c>
       <c r="D6" t="n">
-        <v>-29996.44282687444</v>
+        <v>-29996.44282687492</v>
       </c>
       <c r="E6" t="n">
-        <v>-35974.83258050712</v>
+        <v>-35662.19125158578</v>
       </c>
       <c r="F6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="G6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="H6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="I6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="J6" t="n">
-        <v>402935.2450610704</v>
+        <v>403247.8863899917</v>
       </c>
       <c r="K6" t="n">
-        <v>471934.3994801844</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="L6" t="n">
-        <v>376664.1616891664</v>
+        <v>376976.8030180873</v>
       </c>
       <c r="M6" t="n">
-        <v>339216.4237847158</v>
+        <v>339529.0651136374</v>
       </c>
       <c r="N6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="O6" t="n">
-        <v>471934.3994801846</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="P6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.0408091058</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562784</v>
+        <v>933.7024595627844</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856973</v>
+        <v>640.1406900856979</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933057</v>
+        <v>319.6474457933061</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788897</v>
+        <v>434.2730407788896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841909</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>289.903479783282</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.4884436845404</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>50.51920908443739</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,13 +27511,13 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>26.70924587508279</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>98.46186123958874</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>50.65145779502393</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.1648765455755</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>302.7376544289921</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778209</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>108.3384841621561</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>4.547159886270755</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>50.89679785123838</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465017</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>187.3314016129895</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164522035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164524394</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>115.9615342899028</v>
       </c>
       <c r="H10" t="n">
-        <v>96.91160063723683</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430994</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885561</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972538</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763196</v>
+        <v>477.4691627763198</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354937</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359948</v>
+        <v>659.095405035995</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525084</v>
+        <v>669.7602577525087</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307901</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983027</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542134</v>
+        <v>405.3441667542136</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140481</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,43 +31597,43 @@
         <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026279</v>
+        <v>69.14683309026282</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502172</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571286</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617173</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.336058015222</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519089</v>
+        <v>477.8354464519091</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947594</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366405</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133945</v>
+        <v>8.095024154133949</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419035</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
         <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415886</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
         <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462353</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
         <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307424</v>
+        <v>75.70643221307427</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658782</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794276</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650344</v>
+        <v>0.09183958618650348</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,7 +33271,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731339</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655064</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087221</v>
+        <v>428.7491718087223</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559175</v>
+        <v>440.3471941559177</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091033</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430331</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797641</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234321</v>
+        <v>20.20013907234329</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127608</v>
+        <v>62.90656844127616</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884368</v>
+        <v>186.4616124758583</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772544</v>
+        <v>297.5110943772546</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396989</v>
+        <v>640.1406900856979</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318887</v>
+        <v>640.1406900856979</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074645</v>
+        <v>335.2392020074647</v>
       </c>
       <c r="P9" t="n">
-        <v>514.005412589928</v>
+        <v>249.5306650804293</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>122.7679674826201</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787333</v>
+        <v>25.68023017873334</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357668</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228601</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010404</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
